--- a/nodes_source_analyses/energy/energy/energy_chp_ultra_supercritical_cofiring_coal.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_chp_ultra_supercritical_cofiring_coal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/energy/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA57F6-2889-B54B-B454-A7830F40B5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6999189-18FD-2747-A392-92D7F9035E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
   <si>
     <t>Source</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t>euro/MWh</t>
   </si>
   <si>
@@ -183,12 +180,6 @@
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -541,6 +529,15 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>input capacity</t>
+  </si>
+  <si>
+    <t>electrical efficiency</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1254,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1529,6 +1526,11 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="234">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1921,8 +1923,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2402,12 +2404,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="23" customFormat="1">
@@ -2433,16 +2435,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2467,7 +2469,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="67"/>
     </row>
@@ -2479,31 +2481,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="68"/>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="68"/>
       <c r="C14" s="69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2514,58 +2516,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="68" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="68"/>
       <c r="C17" s="73" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="68"/>
       <c r="C18" s="74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="68"/>
       <c r="C19" s="75" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="76"/>
       <c r="C21" s="78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="76"/>
       <c r="C22" s="79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="76"/>
       <c r="C23" s="80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2579,25 +2581,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K33"/>
+  <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
     <col min="7" max="7" width="45" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2608,7 +2610,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="142" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" s="143"/>
       <c r="D2" s="143"/>
@@ -2657,7 +2659,7 @@
     <row r="8" spans="2:11" s="39" customFormat="1" ht="19">
       <c r="B8" s="84"/>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="85" t="s">
         <v>15</v>
@@ -2689,7 +2691,7 @@
     <row r="10" spans="2:11" s="39" customFormat="1" ht="17" customHeight="1" thickBot="1">
       <c r="B10" s="19"/>
       <c r="C10" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="14"/>
@@ -2702,7 +2704,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="35"/>
       <c r="C11" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>5</v>
@@ -2714,7 +2716,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J11" s="87"/>
       <c r="K11" s="30"/>
@@ -2722,7 +2724,7 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="35"/>
       <c r="C12" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>5</v>
@@ -2734,7 +2736,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12" s="87"/>
       <c r="K12" s="30"/>
@@ -2754,7 +2756,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J13" s="87"/>
       <c r="K13" s="30"/>
@@ -2762,49 +2764,41 @@
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="35"/>
       <c r="C14" s="31" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E14" s="42">
         <f>'Research data'!H6</f>
-        <v>643.48</v>
+        <v>1739.1</v>
       </c>
       <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
-        <v>29</v>
+      <c r="G14" s="151" t="s">
+        <v>147</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J14" s="87"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11">
       <c r="B15" s="35"/>
-      <c r="C15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="41">
-        <v>260.86956521739103</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="35"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="D16" s="82"/>
       <c r="E16" s="83"/>
       <c r="F16" s="30"/>
@@ -2815,143 +2809,151 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="35"/>
-      <c r="C17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="C17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="42">
+        <f>'Research data'!H16</f>
+        <v>1319134000</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="135" t="s">
+        <v>133</v>
+      </c>
       <c r="J17" s="87"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="35"/>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="42">
-        <f>'Research data'!H15</f>
-        <v>1319134000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="135" t="s">
-        <v>137</v>
+      <c r="I18" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="J18" s="87"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="35"/>
       <c r="C19" s="31" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J19" s="87"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="35"/>
       <c r="C20" s="31" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="42">
         <v>0</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J20" s="87"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="35"/>
       <c r="C21" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E21" s="81">
+        <f>'Research data'!H19</f>
+        <v>30887040</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="29" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J21" s="87"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="35"/>
       <c r="C22" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="81">
-        <f>'Research data'!H18</f>
-        <v>30887040</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="41">
+        <f>'Research data'!H21</f>
+        <v>1544.35</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J22" s="87"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="35"/>
       <c r="C23" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="41">
-        <f>'Research data'!H20</f>
-        <v>1544.35</v>
+        <v>49</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="29" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="J23" s="87"/>
     </row>
@@ -2961,64 +2963,56 @@
         <v>48</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E24" s="42">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H24" s="31"/>
-      <c r="I24" s="29" t="s">
-        <v>54</v>
+      <c r="I24" s="141" t="s">
+        <v>145</v>
       </c>
       <c r="J24" s="87"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="35"/>
       <c r="C25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="42">
-        <v>0.04</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="141" t="s">
-        <v>149</v>
-      </c>
       <c r="J25" s="87"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1">
+    <row r="26" spans="2:10">
       <c r="B26" s="35"/>
-      <c r="C26" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="42">
-        <v>1</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="29" t="s">
-        <v>54</v>
-      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="87"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="35"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="82"/>
       <c r="E27" s="83"/>
       <c r="F27" s="30"/>
@@ -3029,112 +3023,99 @@
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="35"/>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="C28" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="42">
+        <f>'Research data'!H13</f>
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="65" t="s">
+        <v>63</v>
+      </c>
       <c r="J28" s="87"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="35"/>
       <c r="C29" s="31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="42">
+        <f>'Research data'!H11</f>
         <v>4</v>
-      </c>
-      <c r="E29" s="42">
-        <f>'Research data'!H12</f>
-        <v>0.3</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H29" s="31"/>
-      <c r="I29" s="65" t="s">
-        <v>67</v>
+      <c r="I29" s="135" t="s">
+        <v>70</v>
       </c>
       <c r="J29" s="87"/>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="35"/>
       <c r="C30" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="42">
-        <f>'Research data'!H10</f>
-        <v>4</v>
+        <f>'Research data'!H12</f>
+        <v>40</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="31"/>
-      <c r="I30" s="135" t="s">
-        <v>74</v>
+      <c r="I30" s="65" t="s">
+        <v>111</v>
       </c>
       <c r="J30" s="87"/>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="35"/>
       <c r="C31" s="31" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="42">
-        <f>'Research data'!H11</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F31" s="31"/>
-      <c r="G31" s="31" t="s">
-        <v>26</v>
-      </c>
+      <c r="G31" s="31"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="65" t="s">
-        <v>115</v>
+      <c r="I31" s="135" t="s">
+        <v>51</v>
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1">
-      <c r="B32" s="35"/>
-      <c r="C32" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="42">
-        <v>0</v>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="87"/>
-    </row>
-    <row r="33" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
+    <row r="32" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3150,33 +3131,33 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R24"/>
+  <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="43" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="43" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="43" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="43" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="43" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="43" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="43" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="64" customWidth="1"/>
     <col min="11" max="11" width="2" style="64" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="64" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="64" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="64" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="64" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" style="64" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="64" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" style="43" customWidth="1"/>
     <col min="16" max="16" width="10" style="64" customWidth="1"/>
-    <col min="17" max="17" width="2.42578125" style="64" customWidth="1"/>
-    <col min="18" max="18" width="81.7109375" style="43" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="43"/>
+    <col min="17" max="17" width="2.5" style="64" customWidth="1"/>
+    <col min="18" max="18" width="81.6640625" style="43" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -3202,7 +3183,7 @@
     <row r="3" spans="2:18" s="20" customFormat="1">
       <c r="B3" s="19"/>
       <c r="C3" s="93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3211,27 +3192,27 @@
       </c>
       <c r="G3" s="93"/>
       <c r="H3" s="93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I3" s="93"/>
       <c r="J3" s="95" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K3" s="95"/>
       <c r="L3" s="95" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M3" s="95"/>
       <c r="N3" s="95" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O3" s="93"/>
       <c r="P3" s="95" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="95"/>
       <c r="R3" s="93" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:18">
@@ -3256,7 +3237,7 @@
     <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="100"/>
       <c r="C5" s="27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -3276,18 +3257,18 @@
     </row>
     <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="100"/>
-      <c r="C6" s="105" t="s">
-        <v>31</v>
+      <c r="C6" s="117" t="s">
+        <v>146</v>
       </c>
       <c r="D6" s="105"/>
       <c r="E6" s="105"/>
-      <c r="F6" s="106" t="s">
-        <v>98</v>
+      <c r="F6" s="152" t="s">
+        <v>94</v>
       </c>
       <c r="G6" s="107"/>
       <c r="H6" s="108">
-        <f>ROUND(643.478260869565,2)</f>
-        <v>643.48</v>
+        <f>ROUND(H7/Notes!E26,1)</f>
+        <v>1739.1</v>
       </c>
       <c r="I6" s="107"/>
       <c r="J6" s="109"/>
@@ -3300,21 +3281,28 @@
       <c r="Q6" s="111"/>
       <c r="R6" s="104"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" ht="17" thickBot="1">
       <c r="B7" s="100"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
+      <c r="C7" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108">
+        <f>ROUND(643.478260869565,2)</f>
+        <v>643.48</v>
+      </c>
+      <c r="I7" s="107"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
       <c r="P7" s="111"/>
       <c r="Q7" s="111"/>
       <c r="R7" s="104"/>
@@ -3338,263 +3326,254 @@
       <c r="Q8" s="111"/>
       <c r="R8" s="104"/>
     </row>
-    <row r="9" spans="2:18" ht="17" thickBot="1">
+    <row r="9" spans="2:18">
       <c r="B9" s="100"/>
-      <c r="C9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="112"/>
       <c r="P9" s="111"/>
       <c r="Q9" s="111"/>
-      <c r="R9" s="28"/>
+      <c r="R9" s="104"/>
     </row>
     <row r="10" spans="2:18" ht="17" thickBot="1">
       <c r="B10" s="100"/>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" spans="2:18" ht="17" thickBot="1">
+      <c r="B11" s="100"/>
+      <c r="C11" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="106" t="s">
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="114">
+      <c r="G11" s="107"/>
+      <c r="H11" s="114">
         <f>ROUND(4,1)</f>
         <v>4</v>
       </c>
-      <c r="I10" s="115"/>
-      <c r="J10" s="125">
+      <c r="I11" s="115"/>
+      <c r="J11" s="125">
         <f>Notes!E51</f>
         <v>4</v>
       </c>
-      <c r="K10" s="115"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="117" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="118">
-        <f>ROUND(40,0)</f>
-        <v>40</v>
-      </c>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
       <c r="K11" s="115"/>
       <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="132">
-        <f>Notes!E60</f>
-        <v>40</v>
-      </c>
+      <c r="M11" s="116"/>
+      <c r="N11" s="115"/>
       <c r="O11" s="115"/>
       <c r="P11" s="102"/>
       <c r="Q11" s="102"/>
-      <c r="R11" s="104"/>
+      <c r="R11" s="104" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="12" spans="2:18" ht="17" thickBot="1">
       <c r="B12" s="100"/>
-      <c r="C12" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="107"/>
+      <c r="H12" s="118">
+        <f>ROUND(40,0)</f>
+        <v>40</v>
+      </c>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="132">
+        <f>Notes!E60</f>
+        <v>40</v>
+      </c>
+      <c r="O12" s="115"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="104"/>
+    </row>
+    <row r="13" spans="2:18" ht="17" thickBot="1">
+      <c r="B13" s="100"/>
+      <c r="C13" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="120">
+      <c r="G13" s="107"/>
+      <c r="H13" s="120">
         <f>ROUND(0.3,1)</f>
         <v>0.3</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="122">
-        <f>408*642/1000000</f>
-        <v>0.261936</v>
-      </c>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="123" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="100"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="115"/>
       <c r="K13" s="115"/>
       <c r="L13" s="115"/>
       <c r="M13" s="115"/>
       <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="111"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122">
+        <f>408*642/1000000</f>
+        <v>0.261936</v>
+      </c>
       <c r="Q13" s="111"/>
-      <c r="R13" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1">
+      <c r="R13" s="123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
       <c r="B14" s="100"/>
-      <c r="C14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
       <c r="P14" s="111"/>
       <c r="Q14" s="111"/>
-      <c r="R14" s="104"/>
+      <c r="R14" s="28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="100"/>
-      <c r="C15" s="105" t="s">
-        <v>105</v>
+      <c r="C15" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="101"/>
-      <c r="H15" s="125">
-        <f>ROUND(H16*H6*1000,2)</f>
-        <v>1319134000</v>
-      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="11"/>
       <c r="P15" s="111"/>
       <c r="Q15" s="111"/>
-      <c r="R15" s="104" t="s">
-        <v>128</v>
-      </c>
+      <c r="R15" s="104"/>
     </row>
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="100"/>
-      <c r="C16" s="126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="107"/>
+      <c r="C16" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="101"/>
       <c r="H16" s="125">
-        <v>2050</v>
-      </c>
-      <c r="I16" s="115"/>
-      <c r="J16" s="132">
-        <f>1700+Notes!E30</f>
-        <v>2049.6</v>
-      </c>
+        <f>ROUND(H17*H7*1000,2)</f>
+        <v>1319134000</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="115"/>
       <c r="K16" s="115"/>
-      <c r="L16" s="132">
-        <f>1700+Notes!E16</f>
-        <v>2048.17</v>
-      </c>
+      <c r="L16" s="115"/>
       <c r="M16" s="115"/>
       <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="111"/>
       <c r="Q16" s="111"/>
       <c r="R16" s="104" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="100"/>
       <c r="C17" s="126" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="127">
-        <f>H18+H21</f>
-        <v>37836615</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="115"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="125">
+        <v>2050</v>
+      </c>
+      <c r="I17" s="115"/>
+      <c r="J17" s="132">
+        <f>1700+Notes!E30</f>
+        <v>2049.6</v>
+      </c>
       <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="L17" s="132">
+        <f>1700+Notes!E16</f>
+        <v>2048.17</v>
+      </c>
       <c r="M17" s="115"/>
       <c r="N17" s="115"/>
       <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
       <c r="R17" s="104" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="100"/>
-      <c r="C18" s="113" t="s">
-        <v>123</v>
+      <c r="C18" s="126" t="s">
+        <v>118</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="101" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="101"/>
       <c r="H18" s="127">
-        <f>ROUND(H19*1000*H6,2)</f>
-        <v>30887040</v>
+        <f>H19+H22</f>
+        <v>37836615</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="115"/>
@@ -3602,26 +3581,27 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="128"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="115"/>
       <c r="Q18" s="115"/>
       <c r="R18" s="104" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="100"/>
       <c r="C19" s="113" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="101" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="G19" s="101"/>
       <c r="H19" s="127">
-        <v>48</v>
+        <f>ROUND(H20*1000*H7,2)</f>
+        <v>30887040</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="115"/>
@@ -3632,50 +3612,51 @@
       <c r="O19" s="128"/>
       <c r="P19" s="115"/>
       <c r="Q19" s="115"/>
-      <c r="R19" s="28" t="s">
-        <v>61</v>
+      <c r="R19" s="104" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="100"/>
       <c r="C20" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="125">
-        <f>ROUND(H22*H24/H23,2)</f>
-        <v>1544.35</v>
-      </c>
-      <c r="I20" s="115"/>
+        <v>120</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="101"/>
+      <c r="H20" s="127">
+        <v>48</v>
+      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="115"/>
       <c r="K20" s="115"/>
       <c r="L20" s="115"/>
       <c r="M20" s="115"/>
       <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
+      <c r="O20" s="128"/>
       <c r="P20" s="115"/>
       <c r="Q20" s="115"/>
-      <c r="R20" s="28"/>
+      <c r="R20" s="28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="100"/>
       <c r="C21" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
+        <v>54</v>
+      </c>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="106" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G21" s="107"/>
       <c r="H21" s="125">
-        <f>H20*H23</f>
-        <v>6949575</v>
+        <f>ROUND(H23*H25/H24,2)</f>
+        <v>1544.35</v>
       </c>
       <c r="I21" s="115"/>
       <c r="J21" s="115"/>
@@ -3686,21 +3667,22 @@
       <c r="O21" s="115"/>
       <c r="P21" s="115"/>
       <c r="Q21" s="115"/>
-      <c r="R21" s="104"/>
+      <c r="R21" s="28"/>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="100"/>
       <c r="C22" s="113" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="130"/>
       <c r="E22" s="130"/>
       <c r="F22" s="106" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G22" s="107"/>
       <c r="H22" s="125">
-        <v>2.4</v>
+        <f>H21*H24</f>
+        <v>6949575</v>
       </c>
       <c r="I22" s="115"/>
       <c r="J22" s="115"/>
@@ -3716,42 +3698,41 @@
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="100"/>
       <c r="C23" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="112"/>
-      <c r="H23" s="131">
-        <v>4500</v>
-      </c>
-      <c r="I23" s="112"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111"/>
+        <v>54</v>
+      </c>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="107"/>
+      <c r="H23" s="125">
+        <v>2.4</v>
+      </c>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
       <c r="R23" s="104"/>
     </row>
     <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="100"/>
       <c r="C24" s="113" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D24" s="104"/>
       <c r="E24" s="104"/>
       <c r="F24" s="104" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="131">
-        <f>H23*H6</f>
-        <v>2895660</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="112"/>
       <c r="J24" s="109"/>
@@ -3764,8 +3745,34 @@
       <c r="Q24" s="111"/>
       <c r="R24" s="104"/>
     </row>
+    <row r="25" spans="2:18" ht="17" thickBot="1">
+      <c r="B25" s="100"/>
+      <c r="C25" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="112"/>
+      <c r="H25" s="131">
+        <f>H24*H7</f>
+        <v>2895660</v>
+      </c>
+      <c r="I25" s="112"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="104"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="R19:R20">
+  <conditionalFormatting sqref="R20:R21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3776,8 +3783,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="R19" r:id="rId2" location="issuecomment-27882429" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="R14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="R20" r:id="rId2" location="issuecomment-27882429" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3795,18 +3802,18 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="44" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="77.140625" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="44"/>
+    <col min="1" max="1" width="3.6640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="44" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="45" customWidth="1"/>
+    <col min="11" max="11" width="77.1640625" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -3851,7 +3858,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="49"/>
       <c r="C5" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54" t="s">
@@ -3861,16 +3868,16 @@
         <v>20</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>17</v>
@@ -3893,29 +3900,29 @@
       <c r="C7" s="61"/>
       <c r="D7" s="56"/>
       <c r="E7" s="52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="49"/>
       <c r="C8" s="88" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D8" s="89"/>
       <c r="E8" s="52"/>
@@ -3943,29 +3950,29 @@
       <c r="C10" s="90"/>
       <c r="D10" s="90"/>
       <c r="E10" s="56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I10" s="59"/>
       <c r="J10" s="59" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="49"/>
       <c r="C11" s="88" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11" s="89"/>
       <c r="E11" s="56"/>
@@ -3983,7 +3990,7 @@
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="136">
@@ -3994,10 +4001,10 @@
       </c>
       <c r="I12" s="52"/>
       <c r="J12" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K12" s="60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -4017,23 +4024,23 @@
       <c r="C14" s="133"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G14" s="53">
         <v>2012</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I14" s="52"/>
       <c r="J14" s="140" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4067,7 +4074,7 @@
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>10</v>
@@ -4076,18 +4083,18 @@
         <v>2013</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="K17" s="60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="49"/>
       <c r="C18" s="61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
@@ -4101,7 +4108,7 @@
     <row r="19" spans="2:11">
       <c r="B19" s="49"/>
       <c r="C19" s="61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="52"/>
@@ -4129,7 +4136,7 @@
       <c r="C21" s="56"/>
       <c r="D21" s="56"/>
       <c r="E21" s="52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="56" t="s">
         <v>10</v>
@@ -4137,21 +4144,21 @@
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="49"/>
       <c r="C22" s="61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" s="56"/>
       <c r="E22" s="52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
@@ -4179,18 +4186,18 @@
   <dimension ref="B1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" style="96" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="96"/>
-    <col min="4" max="4" width="12.42578125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="96"/>
-    <col min="6" max="6" width="8.42578125" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="96"/>
+    <col min="2" max="2" width="5.6640625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="96"/>
+    <col min="4" max="4" width="12.5" style="96" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="96"/>
+    <col min="6" max="6" width="8.5" style="96" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
@@ -4215,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4246,7 +4253,7 @@
     <row r="5" spans="2:14">
       <c r="B5" s="100"/>
       <c r="C5" s="112" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="112"/>
       <c r="E5" s="112"/>
@@ -4263,7 +4270,7 @@
     <row r="6" spans="2:14">
       <c r="B6" s="100"/>
       <c r="C6" s="112" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
@@ -4387,10 +4394,10 @@
       <c r="C14" s="112"/>
       <c r="D14" s="112"/>
       <c r="E14" s="112" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F14" s="112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="112"/>
@@ -4410,7 +4417,7 @@
         <v>465</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G15" s="112"/>
       <c r="H15" s="112"/>
@@ -4429,7 +4436,7 @@
         <v>348.17</v>
       </c>
       <c r="F16" s="112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="112"/>
@@ -4563,7 +4570,7 @@
     <row r="25" spans="2:14">
       <c r="B25" s="100"/>
       <c r="C25" s="112" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D25" s="112"/>
       <c r="E25" s="112"/>
@@ -4580,11 +4587,15 @@
     <row r="26" spans="2:14">
       <c r="B26" s="100"/>
       <c r="C26" s="112" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
+      <c r="E26" s="112">
+        <v>0.37</v>
+      </c>
+      <c r="F26" s="153" t="s">
+        <v>148</v>
+      </c>
       <c r="G26" s="112"/>
       <c r="H26" s="112"/>
       <c r="I26" s="112"/>
@@ -4614,10 +4625,10 @@
       <c r="C28" s="112"/>
       <c r="D28" s="112"/>
       <c r="E28" s="112" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F28" s="112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
@@ -4636,7 +4647,7 @@
         <v>450</v>
       </c>
       <c r="F29" s="112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G29" s="112"/>
       <c r="H29" s="112"/>
@@ -4655,7 +4666,7 @@
         <v>349.6</v>
       </c>
       <c r="F30" s="112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G30" s="112"/>
       <c r="H30" s="112"/>
@@ -4774,7 +4785,7 @@
     <row r="38" spans="2:14">
       <c r="B38" s="100"/>
       <c r="C38" s="112" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
@@ -4791,7 +4802,7 @@
     <row r="39" spans="2:14">
       <c r="B39" s="100"/>
       <c r="C39" s="112" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D39" s="112"/>
       <c r="E39" s="112"/>
@@ -4978,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="112" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G51" s="112"/>
       <c r="H51" s="112"/>
@@ -5022,7 +5033,7 @@
     <row r="54" spans="2:14">
       <c r="B54" s="100"/>
       <c r="C54" s="112" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D54" s="112"/>
       <c r="E54" s="112"/>
@@ -5039,7 +5050,7 @@
     <row r="55" spans="2:14">
       <c r="B55" s="100"/>
       <c r="C55" s="112" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D55" s="112"/>
       <c r="E55" s="112"/>
@@ -5117,13 +5128,13 @@
       <c r="B60" s="100"/>
       <c r="C60" s="112"/>
       <c r="D60" s="112" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E60" s="112">
         <v>40</v>
       </c>
       <c r="F60" s="112" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" s="112"/>
       <c r="H60" s="112"/>
